--- a/biology/Histoire de la zoologie et de la botanique/Nérée_Quépat/Nérée_Quépat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nérée_Quépat/Nérée_Quépat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9r%C3%A9e_Qu%C3%A9pat</t>
+          <t>Nérée_Quépat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nérée Quépat, de son vrai nom Henri René Rémi Paquet d'Hauteroche, né le 29 septembre 1845 à Charleville et mort le 30 avril 1927 à Paris, est un juriste, ornithologue et historien français du passé mosellan.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9r%C3%A9e_Qu%C3%A9pat</t>
+          <t>Nérée_Quépat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a surtout vécu à Metz et à Woippy. Il est membre de l'Académie de Metz dès 1885 et membre de la Société d'histoire naturelle de la Moselle dès 1887.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9r%C3%A9e_Qu%C3%A9pat</t>
+          <t>Nérée_Quépat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications partielles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simples notes prises pendant le siège de Paris , 1871.
 Le Chasseur d'alouettes au miroir et au fusil, Paris, Goin, 1871.
